--- a/biology/Médecine/Mycologie_médicale/Mycologie_médicale.xlsx
+++ b/biology/Médecine/Mycologie_médicale/Mycologie_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mycologie_m%C3%A9dicale</t>
+          <t>Mycologie_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mycologie médicale est une branche de la médecine (humaine ou vétérinaire), plus spécifiquement de la Biologie médicale, qui consiste à isoler et caractériser les levures, les champignons filamenteux (ou champignons dimorphiques) dans divers liquides ou tissus d'origine humaine dans le but de caractériser l'origine mycologique ou non d'une pathologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mycologie_m%C3%A9dicale</t>
+          <t>Mycologie_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,55 +523,230 @@
           <t>Principaux champignons en pathologie humaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les principaux types de champignons responsables de mycoses sont :
-Levures
-Candida
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux types de champignons responsables de mycoses sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mycologie_médicale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principaux champignons en pathologie humaine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Levures</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Candida
 Pucciniomycotina
 Cryptococcus neoformans
 Malassezia furfur (également connue sous le nom Pityrosporum furfur)
-Trichosporon
-Dermatophytes
-Epidermophyton
+Trichosporon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mycologie_médicale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principaux champignons en pathologie humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dermatophytes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Epidermophyton
 Trichophyton
-Microsporum
-Moisissures
-Aspergillus
+Microsporum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mycologie_médicale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principaux champignons en pathologie humaine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Moisissures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aspergillus
 Fusarium spp.
-Scopulariopsis spp
-Champignons dimorphiques
-Histoplasma
-Champignons divers
-Pneumocystis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mycologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+Scopulariopsis spp</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mycologie_médicale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mycologie_m%C3%A9dicale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principaux champignons en pathologie humaine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Champignons dimorphiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Histoplasma</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mycologie_médicale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principaux champignons en pathologie humaine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Champignons divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pneumocystis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mycologie_médicale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycologie_m%C3%A9dicale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Principaux antifongiques en thérapeutique humaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Polyénes : Amphotéricine B
 Griséofulvine
@@ -573,31 +760,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mycologie_m%C3%A9dicale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mycologie_médicale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mycologie_m%C3%A9dicale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Principaux tests et analyses au laboratoire de mycologie médical</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Examen direct
 Histologie
